--- a/biology/Botanique/Berlepsch_(pomme)/Berlepsch_(pomme).xlsx
+++ b/biology/Botanique/Berlepsch_(pomme)/Berlepsch_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Berlepsch est un ancien cultivar de pommier domestique du groupe des reinettes dorées.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Reinette dorée de Berlepsch,
 Baron Berlepsch,
@@ -543,7 +557,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cultivar obtenu par Diedrich Uhlhorn junior vers 1880, Grevenbroich en Rhénanie, Allemagne (Europe).
 </t>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Usage: pomme à dessert.
 Épicarpe: vert-jaune (légèrement rayé de rouge pour la Red Berlepsch plus répandue).
@@ -608,7 +626,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cultivar obtenu par sélection du croisement Reinette Ananas x Ribston Pippin.
 Mutant: Red Berlepsch (Roter Berlepsch).</t>
@@ -639,11 +659,13 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cultivar diploïde.
 Groupe de floraison: B.
-Compatibles et semi-compatibles[1]: Cox Orange, Pomme Cloche, Jonathan, Ontario, Bellefleur Jaune, ...</t>
+Compatibles et semi-compatibles: Cox Orange, Pomme Cloche, Jonathan, Ontario, Bellefleur Jaune, ...</t>
         </is>
       </c>
     </row>
@@ -671,11 +693,13 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Fructification: spur.
 Maturité: début octobre.
-Consommation: décembre à mars[2]</t>
+Consommation: décembre à mars</t>
         </is>
       </c>
     </row>
